--- a/boot/src/main/webapp/WEB-INF/bbs/계층형게시판.xlsx
+++ b/boot/src/main/webapp/WEB-INF/bbs/계층형게시판.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GREEN_JAVA\springstudy\boot\src\main\webapp\WEB-INF\bbs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7014BCD0-C8A9-4633-8E88-98FFC7420159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E011A415-9647-4657-9547-A07A12A2BF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D94377FC-B5E5-49AA-8DE0-1643E3118E97}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="29070" windowHeight="16500" xr2:uid="{D94377FC-B5E5-49AA-8DE0-1643E3118E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -544,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B303C6-BF71-4978-935A-4683AFB99042}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/boot/src/main/webapp/WEB-INF/bbs/계층형게시판.xlsx
+++ b/boot/src/main/webapp/WEB-INF/bbs/계층형게시판.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E011A415-9647-4657-9547-A07A12A2BF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D686F75D-6AB8-46DD-8418-2A4910899B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="29070" windowHeight="16500" xr2:uid="{D94377FC-B5E5-49AA-8DE0-1643E3118E97}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="29100" windowHeight="16500" xr2:uid="{D94377FC-B5E5-49AA-8DE0-1643E3118E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,15 +15,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -540,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B303C6-BF71-4978-935A-4683AFB99042}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
